--- a/CHR_US_V1_sFAS_MSD_Plates1-6_Data_NO_SKS_4-6-2022.xlsx
+++ b/CHR_US_V1_sFAS_MSD_Plates1-6_Data_NO_SKS_4-6-2022.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18C5E8B-128D-4F97-B038-44DF8B559036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F93613-361F-4900-BEC5-13E6CF1C1F2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5131" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5131" uniqueCount="223">
   <si>
     <t>Plate Name</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>log of sFAS (pg/mL)</t>
+  </si>
+  <si>
+    <t>Average Sample Intraplate CV</t>
   </si>
 </sst>
 </file>
@@ -59212,7 +59215,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="11">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -59367,17 +59370,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681F5012-95AD-40F4-A324-5CBC0E4D6B46}">
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:X70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -60502,6 +60505,16 @@
       <c r="D69" s="90">
         <f>AVERAGE(D67,D56,D45,D33,D22,D11)</f>
         <v>4.1919733825093104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" s="80"/>
+      <c r="D70" s="90">
+        <f>AVERAGE(D2,D13,D24,D36,D47,D58)</f>
+        <v>2.5383333333333331</v>
       </c>
     </row>
   </sheetData>
